--- a/src/assets/אקסל חניכים למילוי.xlsx
+++ b/src/assets/אקסל חניכים למילוי.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\פרויקט תפארת דוד\צד לקוח\בסיעתא דשמיא\tiferet-david-app\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\הפרויקט גרסה 3\FRONT\tiferetDavidFront\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DCD40C-0F78-49BD-974C-BE8DEF1DB0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A018A2-6266-44A6-A2FA-066B0DA1B196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30EE3B88-3CE2-4D3D-AC45-F1797B2821B7}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>פל' אם</t>
   </si>
   <si>
-    <t xml:space="preserve">מגדר </t>
-  </si>
-  <si>
     <t>בן</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>פעיל/חונך ישיר</t>
+  </si>
+  <si>
+    <t>מגדר</t>
   </si>
 </sst>
 </file>
@@ -757,13 +757,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}" name="טבלה1" displayName="טבלה1" ref="A2:AK51" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A2:AK51" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}" name="טבלה1" displayName="טבלה1" ref="A2:AK100" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A2:AK100" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{1BE47A16-07EC-4AAD-9B5E-E76F1C3BF875}" name="ת.ז" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{F9FFCD87-D9C1-4826-9A67-02144C9619AA}" name="שם פרטי" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{102FA26A-137A-4194-BEEC-D9C9BACA256B}" name="שם משפחה" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C678A2CE-57BF-445A-AA0E-6131F8842FF6}" name="מגדר " dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{C678A2CE-57BF-445A-AA0E-6131F8842FF6}" name="מגדר" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{A824F24A-367F-4DFF-B0A1-88185A04CCCE}" name="תאריך לידה" dataDxfId="32"/>
     <tableColumn id="6" xr3:uid="{70625B1B-3663-4F72-AEE3-BC454E828E3F}" name="עיר" dataDxfId="31"/>
     <tableColumn id="7" xr3:uid="{DA6DCD4D-9A44-4272-A341-D710FF706796}" name="כתובת" dataDxfId="30"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8F83F-ADDC-4965-80F9-E2E602ACA70D}">
   <dimension ref="A1:BC102"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:55" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="13"/>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="18"/>
       <c r="K1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="21"/>
       <c r="M1" s="20"/>
@@ -1167,7 +1167,7 @@
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
       <c r="T1" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U1" s="23"/>
       <c r="V1" s="23"/>
@@ -1177,11 +1177,11 @@
       <c r="Z1" s="23"/>
       <c r="AA1" s="23"/>
       <c r="AB1" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="24"/>
       <c r="AD1" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="25"/>
       <c r="AF1" s="25"/>
@@ -1191,25 +1191,25 @@
       <c r="AJ1" s="25"/>
       <c r="AK1" s="25"/>
       <c r="AM1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT1" s="9">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>3</v>
@@ -1298,40 +1298,40 @@
         <v>18</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="V2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="W2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="X2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="Y2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Z2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="AA2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="32" t="s">
-        <v>37</v>
-      </c>
       <c r="AB2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="33" t="s">
-        <v>40</v>
-      </c>
       <c r="AD2" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="34" t="s">
         <v>10</v>
@@ -1340,41 +1340,41 @@
         <v>9</v>
       </c>
       <c r="AG2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AI2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="34" t="s">
-        <v>52</v>
-      </c>
       <c r="AJ2" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT2" s="10"/>
     </row>
@@ -1401,20 +1401,20 @@
       <c r="AA3" s="1"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR3" s="11"/>
       <c r="AS3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT3" s="12"/>
     </row>
@@ -2533,208 +2533,1090 @@
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="E52" s="4"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="E53" s="4"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="E54" s="4"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="E55" s="4"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="E56" s="4"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="E57" s="4"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="E58" s="4"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="E59" s="4"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="E60" s="4"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="E61" s="4"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="E62" s="4"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="E63" s="4"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ExIsuB2uFcHee3MFqaAr1CQ/FtSLY6tNwuYL8PFMasYgxB41b50qWF68+x3kZNd4Hcmec+sh7Nls27vVfSlIsg==" saltValue="jGBAoBNZxm38MWFBlaaUEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteRows="0" selectLockedCells="1"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="21">
@@ -2742,74 +3624,74 @@
       <formula1>8</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6 D52:D101" xr:uid="{7C5D03C1-6A4C-400C-9EEE-DB3DBE7E68C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6 D96:D101" xr:uid="{7C5D03C1-6A4C-400C-9EEE-DB3DBE7E68C1}">
       <formula1>$AM$1:$AM$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT11 AJ3:AJ51" xr:uid="{60CA4625-9244-49B1-B5E4-947AF5EFA2CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT11 AJ3:AJ95" xr:uid="{60CA4625-9244-49B1-B5E4-947AF5EFA2CD}">
       <formula1>$AN$1:$AN$3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 30 תוים" sqref="B3:C51" xr:uid="{B8842D1E-DECB-4439-B9BF-5E452CFD309B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 30 תוים" sqref="B3:C95" xr:uid="{B8842D1E-DECB-4439-B9BF-5E452CFD309B}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="ערך אפשרי: בן/בת" sqref="D3:D51" xr:uid="{53A7C39A-3E55-4F1F-A2B9-89A7846EA6ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="ערך אפשרי: בן/בת" sqref="D3:D95" xr:uid="{53A7C39A-3E55-4F1F-A2B9-89A7846EA6ED}">
       <formula1>$AM$1:$AM$2</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס תאריך בתבנית: DD/MM/YYYY" sqref="E3:E51" xr:uid="{21DCB96C-A6BE-4DC4-BAEF-E8E6B2EE35F9}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס תאריך בתבנית: DD/MM/YYYY" sqref="E3:E95" xr:uid="{21DCB96C-A6BE-4DC4-BAEF-E8E6B2EE35F9}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 40 תוים" sqref="G3:G51" xr:uid="{3A31E434-E63D-4815-AAD4-109953F96555}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 40 תוים" sqref="G3:G95" xr:uid="{3A31E434-E63D-4815-AAD4-109953F96555}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' פלאפון תקין" sqref="H3:H51" xr:uid="{B75F2E57-815F-4F28-895A-E6246A092FE5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' פלאפון תקין" sqref="H3:H95" xr:uid="{B75F2E57-815F-4F28-895A-E6246A092FE5}">
       <formula1>9</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' טל' תקין" sqref="I3:I51" xr:uid="{FC97DF18-A595-4722-9711-51510E8FA3D1}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' טל' תקין" sqref="I3:I95" xr:uid="{FC97DF18-A595-4722-9711-51510E8FA3D1}">
       <formula1>9</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 60 תוים" sqref="J3:J51 U3:W51 Z3:Z51" xr:uid="{A7C5D406-6215-4572-A957-3C86789DCB06}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 60 תוים" sqref="J3:J95 U3:W95 Z3:Z95" xr:uid="{A7C5D406-6215-4572-A957-3C86789DCB06}">
       <formula1>0</formula1>
       <formula2>60</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 20 תוים" sqref="K3:K51 O3:O51" xr:uid="{41D3E55E-2E50-46B4-AE58-65135FD8BA11}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 20 תוים" sqref="K3:K95 O3:O95" xr:uid="{41D3E55E-2E50-46B4-AE58-65135FD8BA11}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס ת.ז תקינה" sqref="L3:L51 P3:P51" xr:uid="{3EEA4D1A-72BE-4E80-BA5F-050BADE131D9}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס ת.ז תקינה" sqref="L3:L95 P3:P95" xr:uid="{3EEA4D1A-72BE-4E80-BA5F-050BADE131D9}">
       <formula1>8</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 50 תוים" sqref="M3:M51 Q3:Q51" xr:uid="{A1E351F1-F1EA-47D4-9108-4DAF4FC4A4C1}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 50 תוים" sqref="M3:M95 Q3:Q95" xr:uid="{A1E351F1-F1EA-47D4-9108-4DAF4FC4A4C1}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס פל' תקין" sqref="N3:N51 R3:R51 AA3:AA51" xr:uid="{92FE7832-C04E-4F41-BB64-363D7E18AABE}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס פל' תקין" sqref="N3:N95 R3:R95 AA3:AA95" xr:uid="{92FE7832-C04E-4F41-BB64-363D7E18AABE}">
       <formula1>9</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מצב בין 1 ל-10 (10 המצב הטוב ביותר)" sqref="S3:S51" xr:uid="{5083823B-CF35-4C71-9A08-CFD8746B1256}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מצב בין 1 ל-10 (10 המצב הטוב ביותר)" sqref="S3:S95" xr:uid="{5083823B-CF35-4C71-9A08-CFD8746B1256}">
       <formula1>$AT$1:$BC$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מהרשימה" sqref="T3:T51" xr:uid="{8963062F-A738-4313-B99E-EDB1FE140401}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מהרשימה" sqref="T3:T95" xr:uid="{8963062F-A738-4313-B99E-EDB1FE140401}">
       <formula1>$AP$1:$AP$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר : כן/לא" sqref="AG3:AI51" xr:uid="{DC42A769-4167-4BCC-9788-117B8B3C888A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר : כן/לא" sqref="AG3:AI95" xr:uid="{DC42A769-4167-4BCC-9788-117B8B3C888A}">
       <formula1>$AR$1:$AR$2</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 100 תוים" sqref="X3:Y51" xr:uid="{AE71E6E9-41A7-4B8E-9CF8-C530C39C1E24}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 100 תוים" sqref="X3:Y95" xr:uid="{AE71E6E9-41A7-4B8E-9CF8-C530C39C1E24}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AB3:AB51" xr:uid="{96FE7388-B442-465F-B25E-06A3D107733A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AB3:AB95" xr:uid="{96FE7388-B442-465F-B25E-06A3D107733A}">
       <formula1>$AO$1:$AO$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AD3:AD51" xr:uid="{0DB8AA3F-9777-4A9E-ADF5-92C1C16063F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AD3:AD95" xr:uid="{0DB8AA3F-9777-4A9E-ADF5-92C1C16063F7}">
       <formula1>$AS$1:$AS$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AF3:AF51" xr:uid="{4E41FC18-D3EA-4F91-B827-7ADA81C066E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AF3:AF95" xr:uid="{4E41FC18-D3EA-4F91-B827-7ADA81C066E5}">
       <formula1>$AQ$1:$AQ$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/assets/אקסל חניכים למילוי.xlsx
+++ b/src/assets/אקסל חניכים למילוי.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\הפרויקט גרסה 3\FRONT\tiferetDavidFront\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A018A2-6266-44A6-A2FA-066B0DA1B196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA766A47-D329-482A-9C76-A882D779F087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30EE3B88-3CE2-4D3D-AC45-F1797B2821B7}"/>
   </bookViews>
@@ -43,65 +43,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
-  <si>
-    <t>ת.ז</t>
-  </si>
-  <si>
-    <t>שם פרטי</t>
-  </si>
-  <si>
-    <t>שם משפחה</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>תאריך לידה</t>
   </si>
   <si>
-    <t>עיר</t>
-  </si>
-  <si>
     <t>כתובת</t>
   </si>
   <si>
     <t>טלפון בית</t>
   </si>
   <si>
-    <t>פלאפון חניך</t>
-  </si>
-  <si>
     <t>מייל</t>
   </si>
   <si>
-    <t>מצב סיכון</t>
-  </si>
-  <si>
     <t>תיאור מצב קליטה</t>
   </si>
   <si>
-    <t>שם אב</t>
-  </si>
-  <si>
     <t>ת.ז אב</t>
   </si>
   <si>
     <t>עיסוק אב</t>
   </si>
   <si>
-    <t>פל' אב</t>
-  </si>
-  <si>
-    <t>שם אם</t>
-  </si>
-  <si>
     <t>ת.ז אם</t>
   </si>
   <si>
     <t>עיסוק אם</t>
   </si>
   <si>
-    <t>פל' אם</t>
-  </si>
-  <si>
     <t>בן</t>
   </si>
   <si>
@@ -159,12 +129,6 @@
     <t>עוד</t>
   </si>
   <si>
-    <t>סוג</t>
-  </si>
-  <si>
-    <t>כמות</t>
-  </si>
-  <si>
     <t>בימים</t>
   </si>
   <si>
@@ -225,17 +189,56 @@
     <t>מצב סוציואקנומי (1-10)</t>
   </si>
   <si>
-    <t>פעיל/חונך ישיר</t>
-  </si>
-  <si>
-    <t>מגדר</t>
+    <t>השדות המסומנים ב* הם שדות חובה</t>
+  </si>
+  <si>
+    <t>ת.ז*</t>
+  </si>
+  <si>
+    <t>שם פרטי*</t>
+  </si>
+  <si>
+    <t>שם משפחה*</t>
+  </si>
+  <si>
+    <t>עיר*</t>
+  </si>
+  <si>
+    <t>פלאפון חניך*</t>
+  </si>
+  <si>
+    <t>שם אב*</t>
+  </si>
+  <si>
+    <t>פל' אב*</t>
+  </si>
+  <si>
+    <t>שם אם*</t>
+  </si>
+  <si>
+    <t>פל' אם*</t>
+  </si>
+  <si>
+    <t>סוג*</t>
+  </si>
+  <si>
+    <t>כמות*</t>
+  </si>
+  <si>
+    <t>מצב סיכון*</t>
+  </si>
+  <si>
+    <t>פעיל/חונך ישיר*</t>
+  </si>
+  <si>
+    <t>מגדר*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +298,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -402,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,31 +523,35 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,186 +564,13 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -729,6 +579,179 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,46 +780,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}" name="טבלה1" displayName="טבלה1" ref="A2:AK100" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A2:AK100" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}" name="טבלה1" displayName="טבלה1" ref="A3:AK101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:AK101" xr:uid="{43DD32EA-B81E-4F99-A88D-DA9AFC86F75B}"/>
   <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{1BE47A16-07EC-4AAD-9B5E-E76F1C3BF875}" name="ת.ז" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{F9FFCD87-D9C1-4826-9A67-02144C9619AA}" name="שם פרטי" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{102FA26A-137A-4194-BEEC-D9C9BACA256B}" name="שם משפחה" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C678A2CE-57BF-445A-AA0E-6131F8842FF6}" name="מגדר" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{A824F24A-367F-4DFF-B0A1-88185A04CCCE}" name="תאריך לידה" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{70625B1B-3663-4F72-AEE3-BC454E828E3F}" name="עיר" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{DA6DCD4D-9A44-4272-A341-D710FF706796}" name="כתובת" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00DC50DF-1DC8-4959-BB69-45CAC1D37402}" name="פלאפון חניך" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{F7F5097B-2623-4175-8FAF-C84787CD75CF}" name="טלפון בית" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{D742670F-47F5-4C2D-B67C-281BE11BA489}" name="מייל" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{EAD3101E-5BFA-4167-8D23-09A079114D9C}" name="שם אב" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{C7473C5E-9BAF-4601-94AB-6E332A9AEDD2}" name="ת.ז אב" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{888C1166-C200-4A56-844F-6E4EEDEAE09C}" name="עיסוק אב" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{B9F58BAF-9CFC-46DB-AE3F-2C83D71AB86B}" name="פל' אב" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{7992698C-36BA-45CF-B7D7-B206ADE944EB}" name="שם אם" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{1F105837-E955-41BD-9E93-C97DB87C886F}" name="ת.ז אם" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{66864974-C53A-41E1-BE00-B0B3D5299A31}" name="עיסוק אם" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{D7D5CA1A-271D-4988-A25B-E81DC1F34608}" name="פל' אם" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{4C7E93F7-E506-4853-AD16-01727753C4D2}" name="מצב סוציואקנומי (1-10)" dataDxfId="18"/>
-    <tableColumn id="34" xr3:uid="{F6991600-2F17-437D-82B0-81CAB87B8535}" name="מוסד לימודים נוכחי" dataDxfId="17"/>
-    <tableColumn id="33" xr3:uid="{9F270B18-58CC-4357-9E59-7624D1BCB857}" name="שם המוסד" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{EE8D9C3A-E9AF-4C6B-8923-F383AB0CD8B5}" name="שיעור/כיתה בקליטה" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{368BABA8-696C-4C1C-82AF-49A95C71D283}" name="שיעור/כיתה נוכחי" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{B9A642C4-0B63-41A4-9B83-38F9C6F98C01}" name="ישיבות קודמות" dataDxfId="13"/>
-    <tableColumn id="29" xr3:uid="{2DCBAB60-F9FA-45E4-A239-F55E0B46D24B}" name="תלמוד תורה קודם" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{D1DA0B04-6DF2-4E92-8D38-D6F20935EE76}" name="איש צוות מקושר" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{86D8B639-9F25-4DF0-BE1E-083049EE802E}" name="פל' איש צוות מקושר" dataDxfId="10"/>
-    <tableColumn id="37" xr3:uid="{F206BE03-1BC7-4317-A0DB-1B2063DF1F7A}" name="סוג" dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{C8FBFD07-9EE7-486D-B18C-CAC12FE9B549}" name="כמות" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{7455DED4-C5DC-46CD-A753-9AC57F098941}" name="הפניה התקבלה ע&quot;י" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{689A3821-722D-413C-A5BF-88F88B77B9D8}" name="תיאור מצב קליטה" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{C1FD9027-F80A-401C-B402-191EA52428EA}" name="מצב סיכון" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{D00F81AD-075D-416D-A357-34FA2B79DE2C}" name="קשיים לימודיים" dataDxfId="4"/>
-    <tableColumn id="41" xr3:uid="{7346B00A-D5A8-4BFF-96DD-8DDF8E886C9F}" name="קשיים חברתיים" dataDxfId="3"/>
-    <tableColumn id="40" xr3:uid="{BC1EFB03-42B0-4249-B15D-3A9BE89807EB}" name="קשיים רוחניים" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{796FEBD6-F70C-4EF8-8CE6-C9A7D1F019B4}" name="מצב פעילות " dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{DAF0F1AB-B4C8-4229-B5E7-CB6D0F21ABB5}" name="פעיל/חונך ישיר" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1BE47A16-07EC-4AAD-9B5E-E76F1C3BF875}" name="ת.ז*" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{F9FFCD87-D9C1-4826-9A67-02144C9619AA}" name="שם פרטי*" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{102FA26A-137A-4194-BEEC-D9C9BACA256B}" name="שם משפחה*" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{C678A2CE-57BF-445A-AA0E-6131F8842FF6}" name="מגדר*" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{A824F24A-367F-4DFF-B0A1-88185A04CCCE}" name="תאריך לידה" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{70625B1B-3663-4F72-AEE3-BC454E828E3F}" name="עיר*" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{DA6DCD4D-9A44-4272-A341-D710FF706796}" name="כתובת" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00DC50DF-1DC8-4959-BB69-45CAC1D37402}" name="פלאפון חניך*" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{F7F5097B-2623-4175-8FAF-C84787CD75CF}" name="טלפון בית" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{D742670F-47F5-4C2D-B67C-281BE11BA489}" name="מייל" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{EAD3101E-5BFA-4167-8D23-09A079114D9C}" name="שם אב*" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{C7473C5E-9BAF-4601-94AB-6E332A9AEDD2}" name="ת.ז אב" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{888C1166-C200-4A56-844F-6E4EEDEAE09C}" name="עיסוק אב" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{B9F58BAF-9CFC-46DB-AE3F-2C83D71AB86B}" name="פל' אב*" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{7992698C-36BA-45CF-B7D7-B206ADE944EB}" name="שם אם*" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{1F105837-E955-41BD-9E93-C97DB87C886F}" name="ת.ז אם" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{66864974-C53A-41E1-BE00-B0B3D5299A31}" name="עיסוק אם" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{D7D5CA1A-271D-4988-A25B-E81DC1F34608}" name="פל' אם*" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{4C7E93F7-E506-4853-AD16-01727753C4D2}" name="מצב סוציואקנומי (1-10)" dataDxfId="20"/>
+    <tableColumn id="34" xr3:uid="{F6991600-2F17-437D-82B0-81CAB87B8535}" name="מוסד לימודים נוכחי" dataDxfId="19"/>
+    <tableColumn id="33" xr3:uid="{9F270B18-58CC-4357-9E59-7624D1BCB857}" name="שם המוסד" dataDxfId="18"/>
+    <tableColumn id="32" xr3:uid="{EE8D9C3A-E9AF-4C6B-8923-F383AB0CD8B5}" name="שיעור/כיתה בקליטה" dataDxfId="17"/>
+    <tableColumn id="31" xr3:uid="{368BABA8-696C-4C1C-82AF-49A95C71D283}" name="שיעור/כיתה נוכחי" dataDxfId="16"/>
+    <tableColumn id="30" xr3:uid="{B9A642C4-0B63-41A4-9B83-38F9C6F98C01}" name="ישיבות קודמות" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{2DCBAB60-F9FA-45E4-A239-F55E0B46D24B}" name="תלמוד תורה קודם" dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{D1DA0B04-6DF2-4E92-8D38-D6F20935EE76}" name="איש צוות מקושר" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{86D8B639-9F25-4DF0-BE1E-083049EE802E}" name="פל' איש צוות מקושר" dataDxfId="12"/>
+    <tableColumn id="37" xr3:uid="{F206BE03-1BC7-4317-A0DB-1B2063DF1F7A}" name="סוג*" dataDxfId="11"/>
+    <tableColumn id="38" xr3:uid="{C8FBFD07-9EE7-486D-B18C-CAC12FE9B549}" name="כמות*" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{7455DED4-C5DC-46CD-A753-9AC57F098941}" name="הפניה התקבלה ע&quot;י" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{689A3821-722D-413C-A5BF-88F88B77B9D8}" name="תיאור מצב קליטה" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{C1FD9027-F80A-401C-B402-191EA52428EA}" name="מצב סיכון*" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{D00F81AD-075D-416D-A357-34FA2B79DE2C}" name="קשיים לימודיים" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{7346B00A-D5A8-4BFF-96DD-8DDF8E886C9F}" name="קשיים חברתיים" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{BC1EFB03-42B0-4249-B15D-3A9BE89807EB}" name="קשיים רוחניים" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{796FEBD6-F70C-4EF8-8CE6-C9A7D1F019B4}" name="מצב פעילות " dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{DAF0F1AB-B4C8-4229-B5E7-CB6D0F21ABB5}" name="פעיל/חונך ישיר*" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1099,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D8F83F-ADDC-4965-80F9-E2E602ACA70D}">
-  <dimension ref="A1:BC102"/>
+  <dimension ref="A1:BC103"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1138,285 +1161,250 @@
     <col min="44" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:55" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AM2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>8</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="AA3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="25" t="s">
+      <c r="AB3" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AM1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT1" s="9">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="7">
-        <v>2</v>
-      </c>
-      <c r="AV1" s="7">
-        <v>3</v>
-      </c>
-      <c r="AW1" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX1" s="7">
-        <v>5</v>
-      </c>
-      <c r="AY1" s="7">
-        <v>6</v>
-      </c>
-      <c r="AZ1" s="7">
-        <v>7</v>
-      </c>
-      <c r="BA1" s="7">
-        <v>8</v>
-      </c>
-      <c r="BB1" s="7">
-        <v>9</v>
-      </c>
-      <c r="BC1" s="7">
+      <c r="AH3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="30" t="s">
+      <c r="AN3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="32" t="s">
+      <c r="AO3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="32" t="s">
+      <c r="AP3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="32" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK2" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT2" s="10"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT3" s="12"/>
+      <c r="AT3" s="10"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1439,13 +1427,23 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="AT4" s="12"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -1649,6 +1647,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -3611,88 +3617,110 @@
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="E101" s="4"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+      <c r="A102" s="1"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ExIsuB2uFcHee3MFqaAr1CQ/FtSLY6tNwuYL8PFMasYgxB41b50qWF68+x3kZNd4Hcmec+sh7Nls27vVfSlIsg==" saltValue="jGBAoBNZxm38MWFBlaaUEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R1jNLUkJEoxF//p+z/zCa6QLiqLrVRs6rOlqXItoSzSavxMaY9r8LGrCDM3dqMC/uzyHkxeZd/amHsGsuUOYww==" saltValue="yVGWuGpgPYCLoWAYv4k1KQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteRows="0" selectLockedCells="1"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="21">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס 9 ספרות" sqref="A3:A101" xr:uid="{D1C59777-CD34-4061-928F-8F144A178916}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס 9 ספרות" sqref="A4:A102" xr:uid="{D1C59777-CD34-4061-928F-8F144A178916}">
       <formula1>8</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6 D96:D101" xr:uid="{7C5D03C1-6A4C-400C-9EEE-DB3DBE7E68C1}">
-      <formula1>$AM$1:$AM$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ7 D97:D102" xr:uid="{7C5D03C1-6A4C-400C-9EEE-DB3DBE7E68C1}">
+      <formula1>$AM$2:$AM$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT11 AJ3:AJ95" xr:uid="{60CA4625-9244-49B1-B5E4-947AF5EFA2CD}">
-      <formula1>$AN$1:$AN$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT12 AJ4:AJ96" xr:uid="{60CA4625-9244-49B1-B5E4-947AF5EFA2CD}">
+      <formula1>$AN$2:$AN$4</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 30 תוים" sqref="B3:C95" xr:uid="{B8842D1E-DECB-4439-B9BF-5E452CFD309B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 30 תוים" sqref="B4:C96" xr:uid="{B8842D1E-DECB-4439-B9BF-5E452CFD309B}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="ערך אפשרי: בן/בת" sqref="D3:D95" xr:uid="{53A7C39A-3E55-4F1F-A2B9-89A7846EA6ED}">
-      <formula1>$AM$1:$AM$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="ערך אפשרי: בן/בת" sqref="D4:D96" xr:uid="{53A7C39A-3E55-4F1F-A2B9-89A7846EA6ED}">
+      <formula1>$AM$2:$AM$3</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס תאריך בתבנית: DD/MM/YYYY" sqref="E3:E95" xr:uid="{21DCB96C-A6BE-4DC4-BAEF-E8E6B2EE35F9}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס תאריך בתבנית: DD/MM/YYYY" sqref="E4:E96" xr:uid="{21DCB96C-A6BE-4DC4-BAEF-E8E6B2EE35F9}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 40 תוים" sqref="G3:G95" xr:uid="{3A31E434-E63D-4815-AAD4-109953F96555}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 40 תוים" sqref="G4:G96" xr:uid="{3A31E434-E63D-4815-AAD4-109953F96555}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' פלאפון תקין" sqref="H3:H95" xr:uid="{B75F2E57-815F-4F28-895A-E6246A092FE5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' פלאפון תקין" sqref="H4:H96" xr:uid="{B75F2E57-815F-4F28-895A-E6246A092FE5}">
       <formula1>9</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' טל' תקין" sqref="I3:I95" xr:uid="{FC97DF18-A595-4722-9711-51510E8FA3D1}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס' טל' תקין" sqref="I4:I96" xr:uid="{FC97DF18-A595-4722-9711-51510E8FA3D1}">
       <formula1>9</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 60 תוים" sqref="J3:J95 U3:W95 Z3:Z95" xr:uid="{A7C5D406-6215-4572-A957-3C86789DCB06}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 60 תוים" sqref="J4:J96 U4:W96 Z4:Z96" xr:uid="{A7C5D406-6215-4572-A957-3C86789DCB06}">
       <formula1>0</formula1>
       <formula2>60</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 20 תוים" sqref="K3:K95 O3:O95" xr:uid="{41D3E55E-2E50-46B4-AE58-65135FD8BA11}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 20 תוים" sqref="K4:K96 O4:O96" xr:uid="{41D3E55E-2E50-46B4-AE58-65135FD8BA11}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס ת.ז תקינה" sqref="L3:L95 P3:P95" xr:uid="{3EEA4D1A-72BE-4E80-BA5F-050BADE131D9}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס ת.ז תקינה" sqref="L4:L96 P4:P96" xr:uid="{3EEA4D1A-72BE-4E80-BA5F-050BADE131D9}">
       <formula1>8</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 50 תוים" sqref="M3:M95 Q3:Q95" xr:uid="{A1E351F1-F1EA-47D4-9108-4DAF4FC4A4C1}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 50 תוים" sqref="M4:M96 Q4:Q96" xr:uid="{A1E351F1-F1EA-47D4-9108-4DAF4FC4A4C1}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס פל' תקין" sqref="N3:N95 R3:R95 AA3:AA95" xr:uid="{92FE7832-C04E-4F41-BB64-363D7E18AABE}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מס פל' תקין" sqref="N4:N96 R4:R96 AA4:AA96" xr:uid="{92FE7832-C04E-4F41-BB64-363D7E18AABE}">
       <formula1>9</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מצב בין 1 ל-10 (10 המצב הטוב ביותר)" sqref="S3:S95" xr:uid="{5083823B-CF35-4C71-9A08-CFD8746B1256}">
-      <formula1>$AT$1:$BC$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הכנס מצב בין 1 ל-10 (10 המצב הטוב ביותר)" sqref="S4:S96" xr:uid="{5083823B-CF35-4C71-9A08-CFD8746B1256}">
+      <formula1>$AT$2:$BC$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מהרשימה" sqref="T3:T95" xr:uid="{8963062F-A738-4313-B99E-EDB1FE140401}">
-      <formula1>$AP$1:$AP$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מהרשימה" sqref="T4:T96" xr:uid="{8963062F-A738-4313-B99E-EDB1FE140401}">
+      <formula1>$AP$2:$AP$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר : כן/לא" sqref="AG3:AI95" xr:uid="{DC42A769-4167-4BCC-9788-117B8B3C888A}">
-      <formula1>$AR$1:$AR$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר : כן/לא" sqref="AG4:AI96" xr:uid="{DC42A769-4167-4BCC-9788-117B8B3C888A}">
+      <formula1>$AR$2:$AR$3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 100 תוים" sqref="X3:Y95" xr:uid="{AE71E6E9-41A7-4B8E-9CF8-C530C39C1E24}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="עד 100 תוים" sqref="X4:Y96" xr:uid="{AE71E6E9-41A7-4B8E-9CF8-C530C39C1E24}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AB3:AB95" xr:uid="{96FE7388-B442-465F-B25E-06A3D107733A}">
-      <formula1>$AO$1:$AO$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AB4:AB96" xr:uid="{96FE7388-B442-465F-B25E-06A3D107733A}">
+      <formula1>$AO$2:$AO$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AD3:AD95" xr:uid="{0DB8AA3F-9777-4A9E-ADF5-92C1C16063F7}">
-      <formula1>$AS$1:$AS$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AD4:AD96" xr:uid="{0DB8AA3F-9777-4A9E-ADF5-92C1C16063F7}">
+      <formula1>$AS$2:$AS$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AF3:AF95" xr:uid="{4E41FC18-D3EA-4F91-B827-7ADA81C066E5}">
-      <formula1>$AQ$1:$AQ$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="בחר מרשימה" sqref="AF4:AF96" xr:uid="{4E41FC18-D3EA-4F91-B827-7ADA81C066E5}">
+      <formula1>$AQ$2:$AQ$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
